--- a/HW/HW_05_CART/Nicholas_DeRobertis_HW_05_CART_Excel.xlsx
+++ b/HW/HW_05_CART/Nicholas_DeRobertis_HW_05_CART_Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickd\CS513\HW\HW5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickd\CS513\HW\HW_05_CART\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12A382A-27AF-4605-B8B5-44571B6F0903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021BBA6F-A79C-4EE1-A2D4-41B94EAECD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E4A7F91-B8B5-41D1-BCFE-631CB30CD4D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
   <si>
     <t>PR</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>Gender: Female</t>
+  </si>
+  <si>
+    <t>HW_05_CART</t>
+  </si>
+  <si>
+    <t>Nicholas DeRobertis</t>
+  </si>
+  <si>
+    <t>I Pledge My Honor That I have Abided by the Stevens Honor System</t>
+  </si>
+  <si>
+    <t>CWID: 20006069</t>
   </si>
 </sst>
 </file>
@@ -151,9 +163,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -489,10 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88108380-E29C-422B-8C0F-6791F7970335}">
-  <dimension ref="B2:N40"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,44 +518,49 @@
     <col min="12" max="12" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <f>5/11</f>
         <v>0.45454545454545453</v>
       </c>
@@ -552,19 +571,17 @@
       <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <f>2*D3*E3</f>
         <v>0.49586776859504128</v>
       </c>
-      <c r="L3" s="1"/>
       <c r="M3">
         <f>SUM(ABS(H3-I3), ABS(H4-I4), ABS(H5-I5), ABS(H6-I6))</f>
         <v>0.83333333333333326</v>
@@ -573,59 +590,68 @@
         <f>M3*K3</f>
         <v>0.41322314049586772</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <f>2/6</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <f>2/4</f>
         <v>0.5</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <f t="shared" ref="I5:I6" si="0">2/6</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <f>3/11</f>
         <v>0.27272727272727271</v>
       </c>
@@ -639,16 +665,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <f>2/8</f>
         <v>0.25</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1">
+      <c r="K7">
         <f>2*D7*E7</f>
         <v>0.39669421487603301</v>
       </c>
-      <c r="L7" s="1"/>
       <c r="M7">
         <f>SUM(ABS(H7-I7), ABS(H8-I8), ABS(H9-I9), ABS(H10-I10))</f>
         <v>0.58333333333333326</v>
@@ -658,59 +682,50 @@
         <v>0.2314049586776859</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="G8" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <f>2/8</f>
         <v>0.25</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="G10" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <f>3/11</f>
         <v>0.27272727272727271</v>
       </c>
@@ -725,16 +740,14 @@
         <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <f>2/8</f>
         <v>0.25</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1">
+      <c r="K11">
         <f>2*D11*E11</f>
         <v>0.39669421487603301</v>
       </c>
-      <c r="L11" s="1"/>
       <c r="M11">
         <f>SUM(ABS(H11-I11), ABS(H12-I12), ABS(H13-I13), ABS(H14-I14))</f>
         <v>0.25</v>
@@ -744,7 +757,7 @@
         <v>9.9173553719008253E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
         <v>5</v>
       </c>
@@ -752,15 +765,12 @@
         <f t="shared" ref="H12:H14" si="1">1/4</f>
         <v>0.25</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <f>2/8</f>
         <v>0.25</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
         <v>6</v>
       </c>
@@ -768,15 +778,12 @@
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
         <v>7</v>
       </c>
@@ -784,48 +791,45 @@
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2" t="s">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -840,20 +844,18 @@
       <c r="G16" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1">
+      <c r="K16">
         <f>2*D16*E16</f>
         <v>0.39669421487603301</v>
       </c>
-      <c r="L16" s="1"/>
       <c r="M16">
         <f>SUM(ABS(H16-I16), ABS(H17-I17), ABS(H18-I18), ABS(H19-I19))</f>
         <v>0.58333333333333326</v>
@@ -867,48 +869,39 @@
       <c r="G17" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <f t="shared" ref="H17:H18" si="2">1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <f>2/8</f>
         <v>0.25</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G19" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <f>2/8</f>
         <v>0.25</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
@@ -925,19 +918,17 @@
       <c r="G20" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <f>2/7</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1">
+      <c r="K20">
         <f>2*D20*E20</f>
         <v>0.46280991735537191</v>
       </c>
-      <c r="L20" s="1"/>
       <c r="M20">
         <f>SUM(ABS(H20-I20), ABS(H21-I21), ABS(H22-I22), ABS(H23-I23))</f>
         <v>1.4285714285714284</v>
@@ -951,47 +942,38 @@
       <c r="G21" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <f>3/7</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G22" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
         <f>2/4</f>
         <v>0.5</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <f>2/7</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G23" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23">
         <f>2/4</f>
         <v>0.5</v>
       </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="I23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
@@ -1008,19 +990,17 @@
       <c r="G24" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <f>2/9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1">
+      <c r="K24">
         <f>2*D24*E24</f>
         <v>0.2975206611570248</v>
       </c>
-      <c r="L24" s="1"/>
       <c r="M24">
         <f>SUM(ABS(H24-I24), ABS(H25-I25), ABS(H26-I26), ABS(H27-I27))</f>
         <v>0.88888888888888895</v>
@@ -1034,48 +1014,39 @@
       <c r="G25" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25">
         <f>2/9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G26" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26">
         <f>3/9</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G27" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <f>2/9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
@@ -1092,20 +1063,18 @@
       <c r="G28" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28">
         <f>1/9</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1">
+      <c r="K28">
         <f>2*D28*E28</f>
         <v>0.2975206611570248</v>
       </c>
-      <c r="L28" s="1"/>
       <c r="M28">
         <f>SUM(ABS(H28-I28), ABS(H29-I29), ABS(H30-I30), ABS(H31-I31))</f>
         <v>1.2222222222222223</v>
@@ -1119,78 +1088,69 @@
       <c r="G29" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29">
         <f>2/9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G30" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <f>3/9</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G31" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <f>2/9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
+      <c r="E32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2" t="s">
+      <c r="L32" s="1"/>
+      <c r="M32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="N32" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1209,19 +1169,17 @@
       <c r="G33" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33">
         <f>2/6</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="K33">
         <f>2*D33*E33</f>
         <v>0.49586776859504134</v>
       </c>
-      <c r="L33" s="1"/>
       <c r="M33">
         <f>SUM(ABS(H33-I33), ABS(H34-I34), ABS(H35-I35), ABS(H36-I36))</f>
         <v>1.0333333333333332</v>
@@ -1235,48 +1193,39 @@
       <c r="G34" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34">
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34">
         <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G35" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35">
         <f>2/6</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35">
         <f>3/5</f>
         <v>0.6</v>
       </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G36" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <f>2/5</f>
         <v>0.4</v>
       </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
@@ -1293,19 +1242,17 @@
       <c r="G37" t="s">
         <v>4</v>
       </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <f>2/6</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1">
+      <c r="K37">
         <f>2*D37*E37</f>
         <v>0.49586776859504128</v>
       </c>
-      <c r="L37" s="1"/>
       <c r="M37">
         <f>SUM(ABS(H37-I37), ABS(H38-I38), ABS(H39-I39), ABS(H40-I40))</f>
         <v>0.93333333333333335</v>
@@ -1319,51 +1266,43 @@
       <c r="G38" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38">
         <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38">
         <f>2/6</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G39" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39">
         <f>2/5</f>
         <v>0.4</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39">
         <f>2/6</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G40" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40">
         <f>2/5</f>
         <v>0.4</v>
       </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
+      <c r="I40">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="72" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="I18 I21 I26 H34" formula="1"/>
   </ignoredErrors>
